--- a/Numerical Methods.xlsx
+++ b/Numerical Methods.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shahnawaj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5th semester\NM_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5325"/>
   </bookViews>
   <sheets>
     <sheet name="False Position" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
   <si>
     <t>a</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>f(x0)</t>
+  </si>
+  <si>
+    <t>f'(x0)</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -401,11 +404,11 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <f>POWER(A2,3)-2*POWER(A2,2)-4</f>
+        <f t="shared" ref="C2:D4" si="0">POWER(A2,3)-2*POWER(A2,2)-4</f>
         <v>-4</v>
       </c>
       <c r="D2">
-        <f>POWER(B2,3)-2*POWER(B2,2)-4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E2">
@@ -430,11 +433,11 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f>POWER(A3,3)-2*POWER(A3,2)-4</f>
+        <f t="shared" si="0"/>
         <v>-1.3443072702331946</v>
       </c>
       <c r="D3">
-        <f>POWER(B3,3)-2*POWER(B3,2)-4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E3">
@@ -459,11 +462,11 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f>POWER(A4,3)-2*POWER(A4,2)-4</f>
+        <f t="shared" si="0"/>
         <v>-0.30958813890589276</v>
       </c>
       <c r="D4">
-        <f>POWER(B4,3)-2*POWER(B4,2)-4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E4">
@@ -480,27 +483,27 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ref="A5:A17" si="0">IF((C4*F4)&lt;0,A4,E4)</f>
+        <f t="shared" ref="A5:A17" si="1">IF((C4*F4)&lt;0,A4,E4)</f>
         <v>2.5876913365185605</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B17" si="1">IF((D4*F4)&lt;0,B4,E4)</f>
+        <f t="shared" ref="B5:B17" si="2">IF((D4*F4)&lt;0,B4,E4)</f>
         <v>3</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C17" si="2">POWER(A5,3)-2*POWER(A5,2)-4</f>
+        <f t="shared" ref="C5:C17" si="3">POWER(A5,3)-2*POWER(A5,2)-4</f>
         <v>-6.4732741457630638E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D17" si="3">POWER(B5,3)-2*POWER(B5,2)-4</f>
+        <f t="shared" ref="D5:D17" si="4">POWER(B5,3)-2*POWER(B5,2)-4</f>
         <v>5</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E17" si="4">((A5*D5)-(B5*C5))/(D5-C5)</f>
+        <f t="shared" ref="E5:E17" si="5">((A5*D5)-(B5*C5))/(D5-C5)</f>
         <v>2.5929610854818996</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F17" si="5">POWER(E5,3)-2*POWER(E5,2)-4</f>
+        <f t="shared" ref="F5:F17" si="6">POWER(E5,3)-2*POWER(E5,2)-4</f>
         <v>-1.3257455549087638E-2</v>
       </c>
       <c r="G5">
@@ -509,27 +512,27 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5929610854818996</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.3257455549087638E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5940374914642015</v>
       </c>
       <c r="F6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.7035975632294651E-3</v>
       </c>
       <c r="G6">
@@ -538,27 +541,27 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5940374914642015</v>
       </c>
       <c r="B7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.7035975632294651E-3</v>
       </c>
       <c r="D7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5942568846837748</v>
       </c>
       <c r="F7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5.5086518511870963E-4</v>
       </c>
       <c r="G7">
@@ -567,27 +570,27 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5942568846837748</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.5086518511870963E-4</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5943015817106336</v>
       </c>
       <c r="F8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.122203060113236E-4</v>
       </c>
       <c r="G8">
@@ -596,27 +599,27 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5943015817106336</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.122203060113236E-4</v>
       </c>
       <c r="D9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.594310687026403</v>
       </c>
       <c r="F9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.2860296178706108E-5</v>
       </c>
       <c r="G9">
@@ -625,27 +628,27 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.594310687026403</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.2860296178706108E-5</v>
       </c>
       <c r="D10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5943125418534931</v>
       </c>
       <c r="F10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4.65681574546295E-6</v>
       </c>
       <c r="G10">
@@ -654,27 +657,27 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5943125418534931</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.65681574546295E-6</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5943129196954899</v>
       </c>
       <c r="F11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-9.4862726562894295E-7</v>
       </c>
       <c r="G11">
@@ -683,27 +686,27 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5943129196954899</v>
       </c>
       <c r="B12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.4862726562894295E-7</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5943129966646405</v>
       </c>
       <c r="F12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.9324222222394383E-7</v>
       </c>
       <c r="G12">
@@ -712,27 +715,27 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5943129966646405</v>
       </c>
       <c r="B13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.9324222222394383E-7</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5943130123438118</v>
       </c>
       <c r="F13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.9364829618193653E-8</v>
       </c>
       <c r="G13">
@@ -741,27 +744,27 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5943130123438118</v>
       </c>
       <c r="B14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.9364829618193653E-8</v>
       </c>
       <c r="D14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5943130155377716</v>
       </c>
       <c r="F14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-8.0188993223373473E-9</v>
       </c>
       <c r="G14">
@@ -770,27 +773,27 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5943130155377716</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.0188993223373473E-9</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.594313016188404</v>
       </c>
       <c r="F15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.6335111041598793E-9</v>
       </c>
       <c r="G15">
@@ -799,27 +802,27 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.594313016188404</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.6335111041598793E-9</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5943130163209429</v>
       </c>
       <c r="F16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.3275782129749132E-10</v>
       </c>
       <c r="G16">
@@ -828,27 +831,27 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5943130163209429</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.3275782129749132E-10</v>
       </c>
       <c r="D17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5943130163479418</v>
       </c>
       <c r="F17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6.7785776991513558E-11</v>
       </c>
       <c r="G17">
@@ -862,28 +865,965 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f>A2*A2*A2-2*A2*A2-4</f>
+        <v>-4</v>
+      </c>
+      <c r="D2">
+        <f>B2*B2*B2-2*B2*B2-4</f>
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f>(A2+B2)/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="F2">
+        <f>E2*E2*E2-2*E2*E2-4</f>
+        <v>-0.875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>IF((F2*C2)&lt;0,A2,E2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="B3">
+        <f>IF((F2*D2)&lt;0,B2,E2)</f>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <f>A3*A3*A3-2*A3*A3-4</f>
+        <v>-0.875</v>
+      </c>
+      <c r="D3">
+        <f>B3*B3*B3-2*B3*B3-4</f>
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f>(A3+B3)/2</f>
+        <v>2.75</v>
+      </c>
+      <c r="F3">
+        <f>E3*E3*E3-2*E3*E3-4</f>
+        <v>1.671875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A17" si="0">IF((F3*C3)&lt;0,A3,E3)</f>
+        <v>2.5</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B17" si="1">IF((F3*D3)&lt;0,B3,E3)</f>
+        <v>2.75</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C17" si="2">A4*A4*A4-2*A4*A4-4</f>
+        <v>-0.875</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D17" si="3">B4*B4*B4-2*B4*B4-4</f>
+        <v>1.671875</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E17" si="4">(A4+B4)/2</f>
+        <v>2.625</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F17" si="5">E4*E4*E4-2*E4*E4-4</f>
+        <v>0.306640625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>2.625</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>-0.875</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>0.306640625</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="4"/>
+        <v>2.5625</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="5"/>
+        <v>-0.306396484375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>2.5625</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>2.625</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>-0.306396484375</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
+        <v>0.306640625</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>2.59375</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="5"/>
+        <v>-5.523681640625E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>2.59375</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>2.625</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>-5.523681640625E-3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>0.306640625</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="4"/>
+        <v>2.609375</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>0.14913558959960938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>2.59375</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>2.609375</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>-5.523681640625E-3</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0.14913558959960938</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>2.6015625</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="5"/>
+        <v>7.1451663970947266E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>2.59375</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>2.6015625</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>-5.523681640625E-3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>7.1451663970947266E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>2.59765625</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>3.2875597476959229E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>2.59375</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>2.59765625</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>-5.523681640625E-3</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>3.2875597476959229E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>2.595703125</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>1.3653881847858429E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>2.59375</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>2.595703125</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>-5.523681640625E-3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>1.3653881847858429E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>2.5947265625</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>4.059583880007267E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>2.59375</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>2.5947265625</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>-5.523681640625E-3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>4.059583880007267E-3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>2.59423828125</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>-7.3342758696526289E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>2.59423828125</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>2.5947265625</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>-7.3342758696526289E-4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>4.059583880007267E-3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>2.594482421875</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>1.6627334262011573E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>2.59423828125</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>2.594482421875</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>-7.3342758696526289E-4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>1.6627334262011573E-3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>2.5943603515625</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>4.6456674499495421E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>2.59423828125</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>2.5943603515625</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>-7.3342758696526289E-4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>4.6456674499495421E-4</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>2.59429931640625</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>-1.3445196395878156E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>2.59429931640625</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>2.5943603515625</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>-1.3445196395878156E-4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>4.6456674499495421E-4</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>2.594329833984375</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>1.6505200468941439E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>2.59429931640625</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>2.594329833984375</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>-1.3445196395878156E-4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>1.6505200468941439E-4</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>2.5943145751953125</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>1.5298673918806571E-5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f>A2*A2*A2-2*A2*A2-4</f>
+        <v>-4</v>
+      </c>
+      <c r="D2">
+        <f>B2*B2*B2-2*B2*B2-4</f>
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f>(A2+B2)/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="F2">
+        <f>E2*E2*E2-2*E2*E2-4</f>
+        <v>-0.875</v>
+      </c>
+      <c r="G2">
+        <f>3*E2*E2-4*E2</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>IF((F2*C2)&lt;0,A2,E2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="B3">
+        <f>IF((F2*D2)&lt;0,B2,E2)</f>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <f>A3*A3*A3-2*A3*A3-4</f>
+        <v>-0.875</v>
+      </c>
+      <c r="D3">
+        <f>B3*B3*B3-2*B3*B3-4</f>
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f>(A3+B3)/2</f>
+        <v>2.75</v>
+      </c>
+      <c r="F3">
+        <f>E3*E3*E3-2*E3*E3-4</f>
+        <v>1.671875</v>
+      </c>
+      <c r="G3">
+        <f>3*E3*E3-4*E3</f>
+        <v>11.6875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A17" si="0">IF((F3*C3)&lt;0,A3,E3)</f>
+        <v>2.5</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B17" si="1">IF((F3*D3)&lt;0,B3,E3)</f>
+        <v>2.75</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C17" si="2">A4*A4*A4-2*A4*A4-4</f>
+        <v>-0.875</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D17" si="3">B4*B4*B4-2*B4*B4-4</f>
+        <v>1.671875</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E17" si="4">(A4+B4)/2</f>
+        <v>2.625</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F17" si="5">E4*E4*E4-2*E4*E4-4</f>
+        <v>0.306640625</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G17" si="6">3*E4*E4-4*E4</f>
+        <v>10.171875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>2.625</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>-0.875</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>0.306640625</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="4"/>
+        <v>2.5625</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="5"/>
+        <v>-0.306396484375</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="6"/>
+        <v>9.44921875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>2.5625</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>2.625</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>-0.306396484375</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
+        <v>0.306640625</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>2.59375</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="5"/>
+        <v>-5.523681640625E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="6"/>
+        <v>9.8076171875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>2.59375</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>2.625</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>-5.523681640625E-3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>0.306640625</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="4"/>
+        <v>2.609375</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>0.14913558959960938</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="6"/>
+        <v>9.989013671875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>2.59375</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>2.609375</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>-5.523681640625E-3</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0.14913558959960938</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>2.6015625</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="5"/>
+        <v>7.1451663970947266E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="6"/>
+        <v>9.89813232421875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>2.59375</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>2.6015625</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>-5.523681640625E-3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>7.1451663970947266E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>2.59765625</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>3.2875597476959229E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="6"/>
+        <v>9.8528289794921875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>2.59375</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>2.59765625</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>-5.523681640625E-3</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>3.2875597476959229E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>2.595703125</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>1.3653881847858429E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="6"/>
+        <v>9.8302116394042969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>2.59375</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>2.595703125</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>-5.523681640625E-3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>1.3653881847858429E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>2.5947265625</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>4.059583880007267E-3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="6"/>
+        <v>9.8189115524291992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>2.59375</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>2.5947265625</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>-5.523681640625E-3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>4.059583880007267E-3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>2.59423828125</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>-7.3342758696526289E-4</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="6"/>
+        <v>9.8132636547088623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>2.59423828125</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>2.5947265625</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>-7.3342758696526289E-4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>4.059583880007267E-3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>2.594482421875</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>1.6627334262011573E-3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="6"/>
+        <v>9.8160874247550964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>2.59423828125</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>2.594482421875</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>-7.3342758696526289E-4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>1.6627334262011573E-3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>2.5943603515625</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>4.6456674499495421E-4</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>9.8146754950284958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>2.59423828125</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>2.5943603515625</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>-7.3342758696526289E-4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>4.6456674499495421E-4</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>2.59429931640625</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>-1.3445196395878156E-4</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>9.8139695636928082</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>2.59429931640625</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>2.5943603515625</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>-1.3445196395878156E-4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>4.6456674499495421E-4</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>2.594329833984375</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>1.6505200468941439E-4</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>9.8143225265666842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>2.59429931640625</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>2.594329833984375</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>-1.3445196395878156E-4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>1.6505200468941439E-4</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>2.5943145751953125</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>1.5298673918806571E-5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>9.8141460444312543</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>